--- a/data/trans_orig/Q19A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.4518988393709415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3372826564438665</v>
+        <v>0.3372826564438664</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4609474936879657</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2919776369538314</v>
+        <v>0.2961139254947886</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3921109709073864</v>
+        <v>0.3941727540576191</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3717764820651477</v>
+        <v>0.3771088691829521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2773879476606729</v>
+        <v>0.2739177747524506</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3965523174024161</v>
+        <v>0.3972176174042346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4883780950976817</v>
+        <v>0.4855267367918764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4541501666558421</v>
+        <v>0.4632922937059268</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4174115713439098</v>
+        <v>0.4144828791603717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3589806627155666</v>
+        <v>0.3579564342458541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.45925778188633</v>
+        <v>0.4664735638237297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4371522518560329</v>
+        <v>0.4443196171171273</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3638130102149892</v>
+        <v>0.3677451723920829</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4422394755038416</v>
+        <v>0.4463560251569558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6075404800156501</v>
+        <v>0.6113673718849124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5718819235910204</v>
+        <v>0.5561492991384233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4176720229682129</v>
+        <v>0.4230057769544928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5407837192068432</v>
+        <v>0.5438091665395252</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7722279091187696</v>
+        <v>0.7604257995874184</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6314185051188889</v>
+        <v>0.639064445584217</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5911841157897061</v>
+        <v>0.587129717278575</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4612722534260139</v>
+        <v>0.4614309294167567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6353619150477389</v>
+        <v>0.6417231818687413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5704310678309042</v>
+        <v>0.5712241349015623</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4763422534440142</v>
+        <v>0.4791656681500254</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.4972579259658729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3826358705519061</v>
+        <v>0.382635870551906</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4696407181702284</v>
@@ -817,7 +817,7 @@
         <v>0.6128726667958542</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4545881188004908</v>
+        <v>0.4545881188004906</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4431353980454902</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3492714117143797</v>
+        <v>0.3488204534313226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3053428577720618</v>
+        <v>0.3046242691589124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4328523416187689</v>
+        <v>0.4290211030930609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3180969205044005</v>
+        <v>0.3160306790197248</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4065326718076686</v>
+        <v>0.4138782253401293</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5869877160410306</v>
+        <v>0.579962134473053</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5403668420180289</v>
+        <v>0.542779723223151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.398802438588694</v>
+        <v>0.3954204084205275</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3916608991364506</v>
+        <v>0.3909842923383492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4666793697249972</v>
+        <v>0.4645904748530769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5071524856948945</v>
+        <v>0.4988585835580049</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3715593579550491</v>
+        <v>0.3774490390064692</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.520116116422746</v>
+        <v>0.5214058398020411</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4116004499978927</v>
+        <v>0.4137860555658139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5866717572188108</v>
+        <v>0.5900028953431108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5437565001110124</v>
+        <v>0.5434371169598855</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5423137980698562</v>
+        <v>0.5424355147220044</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.817343946579644</v>
+        <v>0.7943387031567245</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6980221129707785</v>
+        <v>0.7120001392660404</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5407860138514644</v>
+        <v>0.5465894382768607</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5023221689560776</v>
+        <v>0.5019792700500423</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.593577696205091</v>
+        <v>0.5832345998958327</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6142664770082636</v>
+        <v>0.6130526453254325</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4932671816775784</v>
+        <v>0.4910139835637436</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.5135959214653141</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5296359475142276</v>
+        <v>0.5296359475142277</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4177766694589231</v>
+        <v>0.415743853812902</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3744130207816214</v>
+        <v>0.3782850161685639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3993578358001301</v>
+        <v>0.4080978603172796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3677255125461978</v>
+        <v>0.3608362965563703</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4975716378785426</v>
+        <v>0.491700585730798</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4645765943114498</v>
+        <v>0.477901877877049</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4877070130431055</v>
+        <v>0.4845787217633281</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5556006430187239</v>
+        <v>0.5516581199375759</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.482085934583317</v>
+        <v>0.4798677933261028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.445873807689872</v>
+        <v>0.4453067964662882</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4631051003308804</v>
+        <v>0.4642106490028036</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4760784221245827</v>
+        <v>0.4790941178849984</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6968153122522323</v>
+        <v>0.6734612492689811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5569726230756493</v>
+        <v>0.552665936817721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5416525932695463</v>
+        <v>0.5467045113740406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4936231737733455</v>
+        <v>0.4970230082088918</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6738375004157074</v>
+        <v>0.6739525700597162</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7306294713918077</v>
+        <v>0.7611817566801322</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.652738660360523</v>
+        <v>0.6494271468929108</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7384236091439652</v>
+        <v>0.7315880818016646</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6367091217597434</v>
+        <v>0.6433851447825681</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6070188635254551</v>
+        <v>0.6033776573564222</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5657521849225415</v>
+        <v>0.5784697531562167</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5938186166219456</v>
+        <v>0.592813843161722</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3554754511300002</v>
+        <v>0.3565608675095659</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3542923748059816</v>
+        <v>0.3510337046854053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4108159575833728</v>
+        <v>0.415204836064882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.434047450475534</v>
+        <v>0.4287689531613311</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4898429132831525</v>
+        <v>0.4932642237923953</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5023844638076922</v>
+        <v>0.5007728561824448</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4487038738859487</v>
+        <v>0.4523586735416008</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5519920889404568</v>
+        <v>0.5494632052259047</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4515570466492573</v>
+        <v>0.4460260800965391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4483150174268921</v>
+        <v>0.4446512090417379</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4481008201519934</v>
+        <v>0.4495257794159374</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5141903316074509</v>
+        <v>0.5149892100714827</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.49603449855378</v>
+        <v>0.503830916686176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4853142407684895</v>
+        <v>0.4955362681993186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5608033518402109</v>
+        <v>0.5596449542175507</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5873113585533882</v>
+        <v>0.5927619327639337</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7024264035511176</v>
+        <v>0.7084451431695846</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6713953882992526</v>
+        <v>0.6680563663567474</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5683350324561064</v>
+        <v>0.5819324674769069</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.754023476847099</v>
+        <v>0.7528989977172501</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5805049120563994</v>
+        <v>0.5834325040983244</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5595182374000579</v>
+        <v>0.555396914864712</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5499656923438034</v>
+        <v>0.5450450415823183</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6481607887900489</v>
+        <v>0.6448985141392581</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.5561311903818519</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5516540123823851</v>
+        <v>0.5516540123823852</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4747221730014991</v>
@@ -1237,7 +1237,7 @@
         <v>0.517184193187492</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4863875198100112</v>
+        <v>0.4863875198100113</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3852247698073394</v>
+        <v>0.3863034340893119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3863869678558341</v>
+        <v>0.3826108332604813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4374828921513595</v>
+        <v>0.4417576212452758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3816050477638474</v>
+        <v>0.3835802411075943</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4823612136698771</v>
+        <v>0.4830401508787655</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5568269117146938</v>
+        <v>0.5600160064580348</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5202123130155546</v>
+        <v>0.5209764960066045</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5124663831313844</v>
+        <v>0.5132324167261983</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4453477530337714</v>
+        <v>0.4463367074950827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4844952539803308</v>
+        <v>0.4832766780309349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4933883117248132</v>
+        <v>0.4895892285428761</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4584499931725509</v>
+        <v>0.458048638775744</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4731366961014443</v>
+        <v>0.4732448610885562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4664247983017683</v>
+        <v>0.4576771276466743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5184437200297827</v>
+        <v>0.5192572749202398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4640063413740042</v>
+        <v>0.4670664630194257</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5699237079766001</v>
+        <v>0.5817098416427871</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.669716908587021</v>
+        <v>0.6726863594842521</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5970951341813023</v>
+        <v>0.6012857467402508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5971646137228366</v>
+        <v>0.5997513043144367</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.512411686695326</v>
+        <v>0.5092155588206941</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5534108900748662</v>
+        <v>0.5512651421080023</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5478404175457511</v>
+        <v>0.5468016028484591</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5193013161913822</v>
+        <v>0.5172668161346238</v>
       </c>
     </row>
     <row r="19">
